--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail1 Features.xlsx
@@ -1085,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.594935619086858</v>
+        <v>1.58369437488674</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.186220813151584</v>
@@ -1174,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.595589920555492</v>
+        <v>1.585545487322429</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.845168300925087</v>
@@ -1263,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585887771609868</v>
+        <v>1.5820007662963</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.307349184710505</v>
@@ -1352,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.589127260660831</v>
+        <v>1.585436242573075</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.101976395389921</v>
@@ -1441,7 +1441,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.596076467467484</v>
+        <v>1.592649723100355</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.261175303627002</v>
@@ -1530,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.606831470788918</v>
+        <v>1.601575938118149</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.965157383309653</v>
@@ -1619,7 +1619,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.642419902641483</v>
+        <v>1.634549581650484</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.076172360097112</v>
@@ -1708,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634938856399565</v>
+        <v>1.624979290158162</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.083728250575415</v>
@@ -1797,7 +1797,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.627564814309368</v>
+        <v>1.616355788603911</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.004189899873971</v>
@@ -1886,7 +1886,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.61300520175741</v>
+        <v>1.60285598230094</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.144211490854618</v>
@@ -1975,7 +1975,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600257975075436</v>
+        <v>1.59604438834689</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.12613541703355</v>
@@ -2064,7 +2064,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593420123163282</v>
+        <v>1.590004207510289</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.039991908129415</v>
@@ -2153,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.575279414728464</v>
+        <v>1.580344628455487</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.108594744056373</v>
@@ -2242,7 +2242,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.596462480943684</v>
+        <v>1.598036149106012</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.08331538395506</v>
@@ -2331,7 +2331,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.595794118183302</v>
+        <v>1.59643072364814</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.101684640009784</v>
@@ -2420,7 +2420,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572497626538024</v>
+        <v>1.575906710623706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.949129899244971</v>
@@ -2509,7 +2509,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547365430184667</v>
+        <v>1.552201404461021</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.774212242084304</v>
@@ -2598,7 +2598,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550615224238779</v>
+        <v>1.553587328750473</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.760422725081483</v>
@@ -2687,7 +2687,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.563673164240951</v>
+        <v>1.564446909050374</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.714879238041486</v>
@@ -2776,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564584194673322</v>
+        <v>1.565768788055733</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.774927308335246</v>
@@ -2865,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559166091115137</v>
+        <v>1.55944621310661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.854963654473868</v>
@@ -2954,7 +2954,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.543587737838467</v>
+        <v>1.543161698302566</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.773330911733659</v>
@@ -3043,7 +3043,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.529402666151598</v>
+        <v>1.539207358408128</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.827497050859175</v>
@@ -3132,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518051417747557</v>
+        <v>1.53091775361477</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.809641602907983</v>
@@ -3221,7 +3221,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540535198157623</v>
+        <v>1.550861131203059</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.478021715243198</v>
@@ -3310,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.5478951473104</v>
+        <v>1.554974378176475</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.637335559428184</v>
@@ -3399,7 +3399,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.565406113841836</v>
+        <v>1.567562299111738</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.435446878193968</v>
@@ -3488,7 +3488,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562671659862707</v>
+        <v>1.565839229682191</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.709303497785724</v>
@@ -3577,7 +3577,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.557297498328968</v>
+        <v>1.562305064599657</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.745416889936181</v>
@@ -3666,7 +3666,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.563580704742503</v>
+        <v>1.56882823338242</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.48500480752183</v>
@@ -3755,7 +3755,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587112607553107</v>
+        <v>1.589258246972797</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.499118454976648</v>
@@ -3844,7 +3844,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.619825379600487</v>
+        <v>1.619214002566867</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.212332044664385</v>
@@ -3933,7 +3933,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.621845060885895</v>
+        <v>1.622335566512222</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.125740642202209</v>
@@ -4022,7 +4022,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.62396536101905</v>
+        <v>1.623974055496369</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.052451678275688</v>
@@ -4111,7 +4111,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.630046103381147</v>
+        <v>1.626314663281439</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.917381700880794</v>
@@ -4200,7 +4200,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.629295077608972</v>
+        <v>1.622290159891147</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.002089866764328</v>
@@ -4289,7 +4289,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.653360597095308</v>
+        <v>1.645274616435305</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.684408135788</v>
@@ -4378,7 +4378,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.681731936231494</v>
+        <v>1.663090184599399</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.783192796257326</v>
@@ -4467,7 +4467,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.67576041115897</v>
+        <v>1.655618454297139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.013421890625829</v>
@@ -4556,7 +4556,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.636334827063434</v>
+        <v>1.62786308068603</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.141226204538591</v>
@@ -4645,7 +4645,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.630443629458614</v>
+        <v>1.623494908559385</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.131376923423377</v>
@@ -4734,7 +4734,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631200078275894</v>
+        <v>1.629166130023805</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.059512230138661</v>
@@ -5020,7 +5020,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616517854815947</v>
+        <v>1.611548633993377</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.348454187441262</v>
@@ -5109,7 +5109,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.619014513608319</v>
+        <v>1.61265375474116</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.34371229313174</v>
@@ -5198,7 +5198,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.61267672504849</v>
+        <v>1.611171827040458</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.27031732804983</v>
@@ -5287,7 +5287,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.622270995107146</v>
+        <v>1.616333392958782</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.215084780209708</v>
@@ -5376,7 +5376,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.645764455224372</v>
+        <v>1.632357701063911</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.803102430538277</v>
@@ -5465,7 +5465,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648319401484024</v>
+        <v>1.63191470336474</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.39419447360028</v>
@@ -5554,7 +5554,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.657885743965769</v>
+        <v>1.643672276189875</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.443907886258643</v>
@@ -5643,7 +5643,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.667723328336868</v>
+        <v>1.655533792685949</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.366729631237374</v>
@@ -5732,7 +5732,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.674332064300698</v>
+        <v>1.657984690752666</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.217692700801581</v>
@@ -5821,7 +5821,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673778571191846</v>
+        <v>1.655575115521474</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.419174751674635</v>
@@ -5910,7 +5910,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.66692171894774</v>
+        <v>1.648406753484888</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.24305115090573</v>
@@ -5999,7 +5999,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.648022723747973</v>
+        <v>1.629052675361243</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.30075002732669</v>
@@ -6088,7 +6088,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.654092548412982</v>
+        <v>1.631716059081161</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.044334633650966</v>
@@ -6177,7 +6177,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645700274618745</v>
+        <v>1.629706269531959</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.371121194472253</v>
@@ -6266,7 +6266,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.632039496735591</v>
+        <v>1.620627422769607</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.008316215881328</v>
@@ -6355,7 +6355,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.609094026186183</v>
+        <v>1.594915378354834</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.02093577107208</v>
@@ -6444,7 +6444,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.591025617703455</v>
+        <v>1.578418844682276</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.909250426559895</v>
@@ -6533,7 +6533,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.591521766269544</v>
+        <v>1.571824874179057</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.925636165373277</v>
@@ -6622,7 +6622,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.58376276712247</v>
+        <v>1.561265576916236</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.685462954957237</v>
@@ -6711,7 +6711,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.583335659803331</v>
+        <v>1.564055384422994</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.808046794356711</v>
@@ -6800,7 +6800,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595122218382593</v>
+        <v>1.573350939574521</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.937955384344552</v>
@@ -6889,7 +6889,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.593102279040781</v>
+        <v>1.567823597431511</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.896503130310395</v>
@@ -6978,7 +6978,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.577900032357203</v>
+        <v>1.553368503231236</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.574278796380389</v>
@@ -7067,7 +7067,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.575168821758784</v>
+        <v>1.548041082456818</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.696338966954529</v>
@@ -7156,7 +7156,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.575054734259771</v>
+        <v>1.548966868344161</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.736675937311775</v>
@@ -7245,7 +7245,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.57782413313347</v>
+        <v>1.551458845797258</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.935032168194383</v>
@@ -7334,7 +7334,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577666359856627</v>
+        <v>1.555443489143225</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.884353931727396</v>
@@ -7423,7 +7423,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.582507537954332</v>
+        <v>1.557924203591497</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.528398602272575</v>
@@ -7512,7 +7512,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581822726819987</v>
+        <v>1.555339652534935</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.633576189658986</v>
@@ -7601,7 +7601,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.607538582755476</v>
+        <v>1.572093492593711</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.756827695988177</v>
@@ -7690,7 +7690,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.623112034604302</v>
+        <v>1.584400440282403</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.775779474061075</v>
@@ -7779,7 +7779,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631926908327637</v>
+        <v>1.596031615727407</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.255840437996313</v>
@@ -7868,7 +7868,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.630277784461649</v>
+        <v>1.592825438979665</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.173651149572885</v>
@@ -7957,7 +7957,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.613552908241212</v>
+        <v>1.586058001346182</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.906174021691398</v>
@@ -8046,7 +8046,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596586311381988</v>
+        <v>1.574077460933182</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.754787972972256</v>
@@ -8135,7 +8135,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.595927629119313</v>
+        <v>1.57022577960109</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.735625959123368</v>
@@ -8224,7 +8224,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.600877840537422</v>
+        <v>1.573481863361463</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.044155779073602</v>
@@ -8313,7 +8313,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589538955019719</v>
+        <v>1.567755230388203</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.870087078995972</v>
@@ -8402,7 +8402,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.573424168757987</v>
+        <v>1.552348749383609</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.965332175369301</v>
@@ -8491,7 +8491,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584209248537579</v>
+        <v>1.555845597688056</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.883794009214149</v>
@@ -8580,7 +8580,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.587960033110591</v>
+        <v>1.559610923800686</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.530359443878599</v>
@@ -8669,7 +8669,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.592635271303514</v>
+        <v>1.556851593419122</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.003527723838339</v>
@@ -8955,7 +8955,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.69062341973907</v>
+        <v>1.571318015014547</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.342110192858609</v>
@@ -9044,7 +9044,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.677448189463805</v>
+        <v>1.559461489206118</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.974655615478036</v>
@@ -9133,7 +9133,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.672116800130681</v>
+        <v>1.561852657904437</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.412612495230646</v>
@@ -9222,7 +9222,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.681589236041128</v>
+        <v>1.570073089313241</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.025512039865057</v>
@@ -9311,7 +9311,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.685949071286399</v>
+        <v>1.567195309672211</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.650348714922681</v>
@@ -9400,7 +9400,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680648853931438</v>
+        <v>1.569154354904315</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.688862831084581</v>
@@ -9489,7 +9489,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660914610049546</v>
+        <v>1.555403974428927</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.102168248715518</v>
@@ -9578,7 +9578,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.645972093505458</v>
+        <v>1.547903662810058</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.592751003977217</v>
@@ -9667,7 +9667,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649802628116727</v>
+        <v>1.54669065144221</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.547529491416449</v>
@@ -9756,7 +9756,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.646803482297986</v>
+        <v>1.54739603487239</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.070871695100662</v>
@@ -9845,7 +9845,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640493870077151</v>
+        <v>1.53899380122699</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.390840789740915</v>
@@ -9934,7 +9934,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.640513460235833</v>
+        <v>1.535993372233086</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.236812307618782</v>
@@ -10023,7 +10023,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.637257820393597</v>
+        <v>1.528661254495024</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.85330515053792</v>
@@ -10112,7 +10112,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.642539215565533</v>
+        <v>1.539531610480011</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.323732010512136</v>
@@ -10201,7 +10201,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641087543909288</v>
+        <v>1.539470516097817</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.468922504358637</v>
@@ -10290,7 +10290,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.628561632722991</v>
+        <v>1.534325477117303</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.08135542772078</v>
@@ -10379,7 +10379,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.628780454942859</v>
+        <v>1.532992834656917</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.556311709951788</v>
@@ -10468,7 +10468,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.628451471534384</v>
+        <v>1.52298515550493</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.492001090668352</v>
@@ -10557,7 +10557,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.630531225067063</v>
+        <v>1.527558950261472</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.544533978652281</v>
@@ -10646,7 +10646,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.6243591902394</v>
+        <v>1.530627168949629</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.29883190809949</v>
@@ -10735,7 +10735,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620095126662296</v>
+        <v>1.520967720866287</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.274272247412076</v>
@@ -10824,7 +10824,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.633263422084342</v>
+        <v>1.527236198771865</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.473483642125822</v>
@@ -10913,7 +10913,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.64832522840563</v>
+        <v>1.540102741802512</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.292802368699981</v>
@@ -11002,7 +11002,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.635540243217241</v>
+        <v>1.534828672748975</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.661812397379052</v>
@@ -11091,7 +11091,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.644820171945395</v>
+        <v>1.544854092489128</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.112057923190217</v>
@@ -11180,7 +11180,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.652306517044629</v>
+        <v>1.549848858998791</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.337896234516036</v>
@@ -11269,7 +11269,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.654889340896666</v>
+        <v>1.546220720073272</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.499512373287325</v>
@@ -11358,7 +11358,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.655820967500788</v>
+        <v>1.546154800913342</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.500935893392191</v>
@@ -11447,7 +11447,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.651087495305193</v>
+        <v>1.535932569587683</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.612843411684696</v>
@@ -11536,7 +11536,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.659958349252114</v>
+        <v>1.545754355671989</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.783998474330647</v>
@@ -11625,7 +11625,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.663678537633899</v>
+        <v>1.551066562496066</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.690118538416129</v>
@@ -11714,7 +11714,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.668633297544921</v>
+        <v>1.553053932111775</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.658048606528705</v>
@@ -11803,7 +11803,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.679560376798907</v>
+        <v>1.568630155344785</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.85828809722518</v>
@@ -11892,7 +11892,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.658863280633025</v>
+        <v>1.554034490300585</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.215772567477686</v>
@@ -11981,7 +11981,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.66723964240906</v>
+        <v>1.560290836845773</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.017921223169627</v>
@@ -12070,7 +12070,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.67172563358787</v>
+        <v>1.56943395088733</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.043249661562589</v>
@@ -12159,7 +12159,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.670409280306764</v>
+        <v>1.568315036388299</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.893125860616424</v>
@@ -12248,7 +12248,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.664086250120161</v>
+        <v>1.565533467992989</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.932906419884355</v>
@@ -12337,7 +12337,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.664105548310052</v>
+        <v>1.562556374901257</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.129534944260453</v>
@@ -12426,7 +12426,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.664268376309005</v>
+        <v>1.559532439549384</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.21344880408891</v>
@@ -12515,7 +12515,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.65917672751676</v>
+        <v>1.55736315912331</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.285815055209629</v>
@@ -12604,7 +12604,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.641102531962817</v>
+        <v>1.545312381206691</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.961878215654838</v>
@@ -12890,7 +12890,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.766882983932638</v>
+        <v>1.710952193098269</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.609755425441443</v>
@@ -12979,7 +12979,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.751940698170203</v>
+        <v>1.703475925769417</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.417057067928511</v>
@@ -13068,7 +13068,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.728337267482872</v>
+        <v>1.688650464118228</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.580397439951027</v>
@@ -13157,7 +13157,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.728884856879847</v>
+        <v>1.687544712391717</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.510568878497306</v>
@@ -13246,7 +13246,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.730201781133458</v>
+        <v>1.689333613513208</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.78237210245665</v>
@@ -13335,7 +13335,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.721448746966617</v>
+        <v>1.689755952434329</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.257877753706674</v>
@@ -13424,7 +13424,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.740242820505008</v>
+        <v>1.707459939483967</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.056275333093904</v>
@@ -13513,7 +13513,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.756154368454929</v>
+        <v>1.721298257269726</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.959757007729519</v>
@@ -13602,7 +13602,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.763185762532005</v>
+        <v>1.727042399036563</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.074114063506267</v>
@@ -13691,7 +13691,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.754606150512579</v>
+        <v>1.721249636297845</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.356564353950279</v>
@@ -13780,7 +13780,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.753198317172463</v>
+        <v>1.718047050515101</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.155879863088097</v>
@@ -13869,7 +13869,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.755997438687355</v>
+        <v>1.721016597388555</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.207874927743395</v>
@@ -13958,7 +13958,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.751722290934914</v>
+        <v>1.718940561886171</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.439562296308417</v>
@@ -14047,7 +14047,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.761224665914054</v>
+        <v>1.729812420793542</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.293835870989019</v>
@@ -14136,7 +14136,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.761392436276608</v>
+        <v>1.72863681795576</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.237234310478592</v>
@@ -14225,7 +14225,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.76057110873586</v>
+        <v>1.730117912642595</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.276079146271706</v>
@@ -14314,7 +14314,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.769909544797213</v>
+        <v>1.737553675157143</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.002089753742208</v>
@@ -14403,7 +14403,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.782693725896286</v>
+        <v>1.745933752915312</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.384415088175547</v>
@@ -14492,7 +14492,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.790954274825434</v>
+        <v>1.759281748312199</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.3695780934085</v>
@@ -14581,7 +14581,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.790670526208215</v>
+        <v>1.76253729853824</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.447137188171891</v>
@@ -14670,7 +14670,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.805597872893494</v>
+        <v>1.778052571947715</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.147105026099651</v>
@@ -14759,7 +14759,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.802695686826455</v>
+        <v>1.7730136093957</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.172567329881491</v>
@@ -14848,7 +14848,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.792333162803172</v>
+        <v>1.777709530720116</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.820253445207528</v>
@@ -14937,7 +14937,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.787415235643199</v>
+        <v>1.775261126550269</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.576961873584205</v>
@@ -15026,7 +15026,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.794527506787225</v>
+        <v>1.782029490116222</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.902371839481455</v>
@@ -15115,7 +15115,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.802680093372579</v>
+        <v>1.79159303786534</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.917550524736245</v>
@@ -15204,7 +15204,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.804933687719608</v>
+        <v>1.790507067468662</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.083244200337327</v>
@@ -15293,7 +15293,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.806425419609653</v>
+        <v>1.796720425778159</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.783264795188497</v>
@@ -15382,7 +15382,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.800871966876573</v>
+        <v>1.7898025010622</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.214358816813152</v>
@@ -15471,7 +15471,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.797985420635975</v>
+        <v>1.791922942227866</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.579535916898123</v>
@@ -15560,7 +15560,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.797777334859901</v>
+        <v>1.792220445838182</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.657977313473945</v>
@@ -15649,7 +15649,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.803655945571751</v>
+        <v>1.792907055530163</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.293412067099322</v>
@@ -15738,7 +15738,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.801760224959511</v>
+        <v>1.797692792944165</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.351812740253526</v>
@@ -15827,7 +15827,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.793234331104914</v>
+        <v>1.778519255118492</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.004552732599312</v>
@@ -15916,7 +15916,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.797605814501236</v>
+        <v>1.782721335982023</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.884580134693765</v>
@@ -16005,7 +16005,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.788951667927768</v>
+        <v>1.774949716326309</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.199314623738846</v>
@@ -16094,7 +16094,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.794868020379513</v>
+        <v>1.773316730525952</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.248414400516815</v>
@@ -16183,7 +16183,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.790212465578758</v>
+        <v>1.76876169685141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.696654514456713</v>
@@ -16272,7 +16272,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.780417135279994</v>
+        <v>1.757929290781572</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.93080760764908</v>
@@ -16361,7 +16361,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.779234865102573</v>
+        <v>1.753230056858569</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.958916487173266</v>
@@ -16450,7 +16450,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.777785052514321</v>
+        <v>1.748683546429926</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.273176691940965</v>
@@ -16539,7 +16539,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.788891871844052</v>
+        <v>1.758603714555504</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.65097615278766</v>
@@ -16825,7 +16825,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.655302710619035</v>
+        <v>1.608405159776585</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.474242473493717</v>
@@ -16914,7 +16914,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.631161065790888</v>
+        <v>1.588038038218404</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.868648761349176</v>
@@ -17003,7 +17003,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.626362094202181</v>
+        <v>1.589515143471404</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.885984317440355</v>
@@ -17092,7 +17092,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.622754112959485</v>
+        <v>1.587101853283917</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.914098148949282</v>
@@ -17181,7 +17181,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.627589907671313</v>
+        <v>1.594968666188883</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.948944902310355</v>
@@ -17270,7 +17270,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616007071506186</v>
+        <v>1.588166628935941</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.912381174083317</v>
@@ -17359,7 +17359,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.608309922319445</v>
+        <v>1.576243400983983</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.04480041614667</v>
@@ -17448,7 +17448,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.598629106633871</v>
+        <v>1.578828017736436</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.956138357858282</v>
@@ -17537,7 +17537,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611517476892618</v>
+        <v>1.584563511310584</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.035974363075228</v>
@@ -17626,7 +17626,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620039641681413</v>
+        <v>1.5949041078196</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.838230755799441</v>
@@ -17715,7 +17715,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.624600702912566</v>
+        <v>1.592642881110429</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.097616776747232</v>
@@ -17804,7 +17804,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.630670150693605</v>
+        <v>1.596205980382856</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.914033406638934</v>
@@ -17893,7 +17893,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.628436545579577</v>
+        <v>1.592725846113802</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.766452773385249</v>
@@ -17982,7 +17982,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622463869380055</v>
+        <v>1.587776198823239</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.12551712970325</v>
@@ -18071,7 +18071,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.625184812504349</v>
+        <v>1.58723703357921</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.878856954785851</v>
@@ -18160,7 +18160,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.613829359889652</v>
+        <v>1.578674904137188</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.094564529008996</v>
@@ -18249,7 +18249,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.608485306319861</v>
+        <v>1.570877186786087</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.547633991165998</v>
@@ -18338,7 +18338,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610709200589015</v>
+        <v>1.569781425589347</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.731759465087115</v>
@@ -18427,7 +18427,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.603963752060165</v>
+        <v>1.570255286361359</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.748801455303392</v>
@@ -18516,7 +18516,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600366089656545</v>
+        <v>1.569049157757028</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.665135129566543</v>
@@ -18605,7 +18605,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614481339712562</v>
+        <v>1.584211237911643</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.695036596309317</v>
@@ -18694,7 +18694,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.618072589546751</v>
+        <v>1.589372975093625</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.692907771096699</v>
@@ -18783,7 +18783,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.611830531007719</v>
+        <v>1.583686612483021</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.796909123536798</v>
@@ -18872,7 +18872,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.599005758585706</v>
+        <v>1.575870803053661</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.695768306447723</v>
@@ -18961,7 +18961,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598374447603459</v>
+        <v>1.577741009959609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.614628791877758</v>
@@ -19050,7 +19050,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595311007304081</v>
+        <v>1.573172562081454</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.647006424600738</v>
@@ -19139,7 +19139,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.592385222747689</v>
+        <v>1.571127409902559</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.625108341821113</v>
@@ -19228,7 +19228,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59667264633001</v>
+        <v>1.57169734802353</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.547395609322927</v>
@@ -19317,7 +19317,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.595414768518921</v>
+        <v>1.568824752143844</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.674906424240465</v>
@@ -19406,7 +19406,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.594119229911528</v>
+        <v>1.573097321977532</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.566616345777438</v>
@@ -19495,7 +19495,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595518694443587</v>
+        <v>1.57646105777947</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.704868002882149</v>
@@ -19584,7 +19584,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614000416588263</v>
+        <v>1.597769496265256</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.205925324080466</v>
@@ -19673,7 +19673,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609125919529039</v>
+        <v>1.593475196741667</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.110540679032423</v>
@@ -19762,7 +19762,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599589967542637</v>
+        <v>1.580961711484542</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.101056757077963</v>
@@ -19851,7 +19851,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.59460899116463</v>
+        <v>1.577350023010406</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.106730145823997</v>
@@ -19940,7 +19940,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59250154760076</v>
+        <v>1.573974222308363</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.999273122473908</v>
@@ -20029,7 +20029,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.585118279334997</v>
+        <v>1.568137897357242</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.802951996072395</v>
@@ -20118,7 +20118,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.582027962869909</v>
+        <v>1.564325531375338</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.05632978307482</v>
@@ -20207,7 +20207,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.573213782737266</v>
+        <v>1.549192675774169</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.036576519098007</v>
@@ -20296,7 +20296,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.5612049091283</v>
+        <v>1.539009017380391</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.982699133055895</v>
@@ -20385,7 +20385,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55235700501938</v>
+        <v>1.531186560133089</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.092423988199605</v>
@@ -20474,7 +20474,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.541133603940313</v>
+        <v>1.521200889204175</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.10021954265288</v>
@@ -20760,7 +20760,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.583384072133403</v>
+        <v>1.599307701670081</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.916328541663017</v>
@@ -20849,7 +20849,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561239380295007</v>
+        <v>1.577847317922245</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.856612323043416</v>
@@ -20938,7 +20938,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.531158632050827</v>
+        <v>1.55521905031623</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.05340253265738</v>
@@ -21027,7 +21027,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.522836348253364</v>
+        <v>1.552385385285636</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.95057926306719</v>
@@ -21116,7 +21116,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.531456741556946</v>
+        <v>1.562287331008515</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.045025484587599</v>
@@ -21205,7 +21205,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.535405188828769</v>
+        <v>1.56562444157158</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.836997048183732</v>
@@ -21294,7 +21294,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.58269930463888</v>
+        <v>1.612850434401505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.624260887363357</v>
@@ -21383,7 +21383,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.614235381021221</v>
+        <v>1.640253590794548</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.864627557553222</v>
@@ -21472,7 +21472,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.631345533612951</v>
+        <v>1.659255329735231</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.095033482963894</v>
@@ -21561,7 +21561,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605005904347079</v>
+        <v>1.629978240256935</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.956566428759519</v>
@@ -21650,7 +21650,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600820392866379</v>
+        <v>1.62343832799044</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.013788210778518</v>
@@ -21739,7 +21739,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.590336963921138</v>
+        <v>1.60972374811011</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.085643503193122</v>
@@ -21828,7 +21828,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.559148225884115</v>
+        <v>1.58477329017934</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.02864091288915</v>
@@ -21917,7 +21917,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.574027072754019</v>
+        <v>1.601863238151186</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.020854955360021</v>
@@ -22006,7 +22006,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.567456721790917</v>
+        <v>1.590009571725993</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.920417520516907</v>
@@ -22095,7 +22095,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.550624393138783</v>
+        <v>1.57484597434381</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.042071073976998</v>
@@ -22184,7 +22184,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556197584415466</v>
+        <v>1.579725260752046</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.669939266691532</v>
@@ -22273,7 +22273,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.574543664332855</v>
+        <v>1.596002793514208</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.940483297709147</v>
@@ -22362,7 +22362,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609754926129253</v>
+        <v>1.629036133406587</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.87502766323514</v>
@@ -22451,7 +22451,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.612687654488251</v>
+        <v>1.633614887143638</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.042776451576112</v>
@@ -22540,7 +22540,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.624371979978746</v>
+        <v>1.646879286584265</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.029923012522705</v>
@@ -22629,7 +22629,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600091356246693</v>
+        <v>1.62209432144245</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.066551319841941</v>
@@ -22718,7 +22718,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.564236948635519</v>
+        <v>1.603640655403254</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.94805328893321</v>
@@ -22807,7 +22807,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.542703260441776</v>
+        <v>1.581588622426281</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.747771379771617</v>
@@ -22896,7 +22896,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.568608374039492</v>
+        <v>1.610244056436025</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.940155697125784</v>
@@ -22985,7 +22985,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581197094870253</v>
+        <v>1.624413123520536</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.017920828427367</v>
@@ -23074,7 +23074,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.619005055954201</v>
+        <v>1.660024664037616</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.446567637739209</v>
@@ -23163,7 +23163,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639774513201845</v>
+        <v>1.675844855728591</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.909684995271568</v>
@@ -23252,7 +23252,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.645963305828663</v>
+        <v>1.681455606064252</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.795642997815702</v>
@@ -23341,7 +23341,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655271501569834</v>
+        <v>1.697521340314996</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.827896164755077</v>
@@ -23430,7 +23430,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.676906148080898</v>
+        <v>1.715738923658529</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.783421707968599</v>
@@ -23519,7 +23519,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698751335825207</v>
+        <v>1.738272919263218</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.299217068738703</v>
@@ -23608,7 +23608,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.697924300835595</v>
+        <v>1.740965105422462</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.064651197138878</v>
@@ -23697,7 +23697,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.678674170138621</v>
+        <v>1.720394280326478</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.250272007592456</v>
@@ -23786,7 +23786,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669171051828522</v>
+        <v>1.714785300340804</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.171446449083488</v>
@@ -23875,7 +23875,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668718232511935</v>
+        <v>1.71503898949775</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.022637305512474</v>
@@ -23964,7 +23964,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.703830119465424</v>
+        <v>1.7479287904616</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.965902252402211</v>
@@ -24053,7 +24053,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.75461911446109</v>
+        <v>1.787592334371126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.920549689741742</v>
@@ -24142,7 +24142,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.754702617841034</v>
+        <v>1.783450689840546</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.121422779713684</v>
@@ -24231,7 +24231,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.715370880293012</v>
+        <v>1.753302694066697</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.906730164951473</v>
@@ -24320,7 +24320,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.694833890278692</v>
+        <v>1.729625616309102</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.131678847904763</v>
@@ -24409,7 +24409,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.691386248536861</v>
+        <v>1.727312808820808</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.054861693342029</v>
